--- a/Code/Results/Cases/Case_3_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9970575110618189</v>
+        <v>1.053645271017139</v>
       </c>
       <c r="D2">
-        <v>1.016068315791338</v>
+        <v>1.051910786139508</v>
       </c>
       <c r="E2">
-        <v>1.00727018962722</v>
+        <v>1.059894502419626</v>
       </c>
       <c r="F2">
-        <v>1.00830547022253</v>
+        <v>1.070230638277563</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044670860118517</v>
+        <v>1.040300881744945</v>
       </c>
       <c r="J2">
-        <v>1.019326589076378</v>
+        <v>1.058661527357204</v>
       </c>
       <c r="K2">
-        <v>1.027308241832307</v>
+        <v>1.054660978389271</v>
       </c>
       <c r="L2">
-        <v>1.018629159906015</v>
+        <v>1.062622762400373</v>
       </c>
       <c r="M2">
-        <v>1.019650296733659</v>
+        <v>1.072931029374531</v>
       </c>
       <c r="N2">
-        <v>1.020774149751261</v>
+        <v>1.060164948156226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007240444086607</v>
+        <v>1.055498791462641</v>
       </c>
       <c r="D3">
-        <v>1.023949079768787</v>
+        <v>1.053332612497063</v>
       </c>
       <c r="E3">
-        <v>1.016623006473131</v>
+        <v>1.061634772963499</v>
       </c>
       <c r="F3">
-        <v>1.018823003639991</v>
+        <v>1.072230342341859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048176123909987</v>
+        <v>1.040794297841773</v>
       </c>
       <c r="J3">
-        <v>1.027535654681649</v>
+        <v>1.060161631065802</v>
       </c>
       <c r="K3">
-        <v>1.03428443035977</v>
+        <v>1.05589398107142</v>
       </c>
       <c r="L3">
-        <v>1.027047520735043</v>
+        <v>1.064175013051718</v>
       </c>
       <c r="M3">
-        <v>1.029220574854904</v>
+        <v>1.074744129012214</v>
       </c>
       <c r="N3">
-        <v>1.028994873171284</v>
+        <v>1.061667182184154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013562109414365</v>
+        <v>1.056694124493594</v>
       </c>
       <c r="D4">
-        <v>1.028843480511898</v>
+        <v>1.054248992432403</v>
       </c>
       <c r="E4">
-        <v>1.022431788226863</v>
+        <v>1.062756893120052</v>
       </c>
       <c r="F4">
-        <v>1.025359679261485</v>
+        <v>1.073520551541594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050334261000161</v>
+        <v>1.0411102614864</v>
       </c>
       <c r="J4">
-        <v>1.032625144231255</v>
+        <v>1.061128037080686</v>
       </c>
       <c r="K4">
-        <v>1.038605820475137</v>
+        <v>1.056687666719927</v>
       </c>
       <c r="L4">
-        <v>1.032266814570189</v>
+        <v>1.065175023784708</v>
       </c>
       <c r="M4">
-        <v>1.035161374427494</v>
+        <v>1.075913192450407</v>
       </c>
       <c r="N4">
-        <v>1.034091590379823</v>
+        <v>1.062634960606428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016160641035776</v>
+        <v>1.057195701103482</v>
       </c>
       <c r="D5">
-        <v>1.0308556097779</v>
+        <v>1.054633382637259</v>
       </c>
       <c r="E5">
-        <v>1.024820003205128</v>
+        <v>1.063227705943902</v>
       </c>
       <c r="F5">
-        <v>1.02804830545595</v>
+        <v>1.074062083982648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05121696389071</v>
+        <v>1.041242306730834</v>
       </c>
       <c r="J5">
-        <v>1.03471548013743</v>
+        <v>1.061533311047924</v>
       </c>
       <c r="K5">
-        <v>1.040379735552122</v>
+        <v>1.057020352657722</v>
       </c>
       <c r="L5">
-        <v>1.034410495394918</v>
+        <v>1.065594393312044</v>
       </c>
       <c r="M5">
-        <v>1.037603180745455</v>
+        <v>1.076403697882963</v>
       </c>
       <c r="N5">
-        <v>1.03618489480275</v>
+        <v>1.063040810109185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016593612256383</v>
+        <v>1.057279863415789</v>
       </c>
       <c r="D6">
-        <v>1.031190884915689</v>
+        <v>1.05469787367735</v>
       </c>
       <c r="E6">
-        <v>1.025217958573851</v>
+        <v>1.063306703720013</v>
       </c>
       <c r="F6">
-        <v>1.028496388333066</v>
+        <v>1.074152959197178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051363779496171</v>
+        <v>1.041264431810147</v>
       </c>
       <c r="J6">
-        <v>1.035063672329007</v>
+        <v>1.061601299998955</v>
       </c>
       <c r="K6">
-        <v>1.04067516338594</v>
+        <v>1.057076155052369</v>
       </c>
       <c r="L6">
-        <v>1.034767575875031</v>
+        <v>1.065664747134078</v>
       </c>
       <c r="M6">
-        <v>1.03801002699067</v>
+        <v>1.076485999686909</v>
       </c>
       <c r="N6">
-        <v>1.036533581467177</v>
+        <v>1.063108895612324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01359705728127</v>
+        <v>1.056700830255807</v>
       </c>
       <c r="D7">
-        <v>1.028870540942262</v>
+        <v>1.054254132016255</v>
       </c>
       <c r="E7">
-        <v>1.022463905630166</v>
+        <v>1.062763187758131</v>
       </c>
       <c r="F7">
-        <v>1.025395832059703</v>
+        <v>1.073527790918917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050346150128476</v>
+        <v>1.04111202896056</v>
       </c>
       <c r="J7">
-        <v>1.032653264207582</v>
+        <v>1.061133456289677</v>
       </c>
       <c r="K7">
-        <v>1.038629687678444</v>
+        <v>1.056692115915603</v>
       </c>
       <c r="L7">
-        <v>1.032295652006807</v>
+        <v>1.065180631462944</v>
       </c>
       <c r="M7">
-        <v>1.035194215210677</v>
+        <v>1.075919750386834</v>
       </c>
       <c r="N7">
-        <v>1.034119750289742</v>
+        <v>1.062640387511318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000557400663614</v>
+        <v>1.054272521525432</v>
       </c>
       <c r="D8">
-        <v>1.018776408747374</v>
+        <v>1.05239206095627</v>
       </c>
       <c r="E8">
-        <v>1.0104841871958</v>
+        <v>1.060483464898053</v>
       </c>
       <c r="F8">
-        <v>1.011918789734466</v>
+        <v>1.070907234006684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045879385799552</v>
+        <v>1.040468323195654</v>
       </c>
       <c r="J8">
-        <v>1.022149446259748</v>
+        <v>1.059169387106455</v>
       </c>
       <c r="K8">
-        <v>1.029707909136165</v>
+        <v>1.055078545021187</v>
       </c>
       <c r="L8">
-        <v>1.021523991839689</v>
+        <v>1.063148274678977</v>
       </c>
       <c r="M8">
-        <v>1.022939697935608</v>
+        <v>1.073544643215066</v>
       </c>
       <c r="N8">
-        <v>1.023601015715616</v>
+        <v>1.060673529124573</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.975272690674176</v>
+        <v>1.04996181931677</v>
       </c>
       <c r="D9">
-        <v>0.9992299876972651</v>
+        <v>1.049082333873399</v>
       </c>
       <c r="E9">
-        <v>0.9872801319225387</v>
+        <v>1.056435161647647</v>
       </c>
       <c r="F9">
-        <v>0.9858486802166164</v>
+        <v>1.066259885126166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03707332850489</v>
+        <v>1.039308392137335</v>
       </c>
       <c r="J9">
-        <v>1.001729902233315</v>
+        <v>1.055675037774338</v>
       </c>
       <c r="K9">
-        <v>1.012335570179777</v>
+        <v>1.052202817781133</v>
       </c>
       <c r="L9">
-        <v>1.000583007301439</v>
+        <v>1.059532487297663</v>
       </c>
       <c r="M9">
-        <v>0.99917560263487</v>
+        <v>1.069326811291963</v>
       </c>
       <c r="N9">
-        <v>1.003152473594512</v>
+        <v>1.057174217415596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.956423180779342</v>
+        <v>1.047065382345358</v>
       </c>
       <c r="D10">
-        <v>0.9846947414938886</v>
+        <v>1.046855734634067</v>
       </c>
       <c r="E10">
-        <v>0.9700077669009276</v>
+        <v>1.053714120154176</v>
       </c>
       <c r="F10">
-        <v>0.9664605263196142</v>
+        <v>1.063140346875264</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03041679923907</v>
+        <v>1.038517454039062</v>
       </c>
       <c r="J10">
-        <v>0.9864791574061852</v>
+        <v>1.053321923618442</v>
       </c>
       <c r="K10">
-        <v>0.9993459472820985</v>
+        <v>1.05026299010934</v>
       </c>
       <c r="L10">
-        <v>0.9849405110621936</v>
+        <v>1.057097599654044</v>
       </c>
       <c r="M10">
-        <v>0.9814629535834479</v>
+        <v>1.066491698632289</v>
       </c>
       <c r="N10">
-        <v>0.9878800709604427</v>
+        <v>1.054817761567693</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9476584102177131</v>
+        <v>1.045805529561924</v>
       </c>
       <c r="D11">
-        <v>0.9779498496592528</v>
+        <v>1.045886610542765</v>
       </c>
       <c r="E11">
-        <v>0.9619850602145961</v>
+        <v>1.052530343005545</v>
       </c>
       <c r="F11">
-        <v>0.9574575186173683</v>
+        <v>1.061784183135766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027302025766937</v>
+        <v>1.038170689634268</v>
       </c>
       <c r="J11">
-        <v>0.9793832778258562</v>
+        <v>1.052297170166802</v>
       </c>
       <c r="K11">
-        <v>0.9932999342326846</v>
+        <v>1.04941744562471</v>
       </c>
       <c r="L11">
-        <v>0.9776613463140368</v>
+        <v>1.056037228474749</v>
       </c>
       <c r="M11">
-        <v>0.9732289353660488</v>
+        <v>1.065258260545546</v>
       </c>
       <c r="N11">
-        <v>0.9807741144172011</v>
+        <v>1.053791552848612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9442979322779348</v>
+        <v>1.045336685762857</v>
       </c>
       <c r="D12">
-        <v>0.9753664232751348</v>
+        <v>1.045525866369943</v>
       </c>
       <c r="E12">
-        <v>0.9589106751307186</v>
+        <v>1.052089777884998</v>
       </c>
       <c r="F12">
-        <v>0.954007648639793</v>
+        <v>1.061279607434165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026105097214314</v>
+        <v>1.038041234302408</v>
       </c>
       <c r="J12">
-        <v>0.9766622303993868</v>
+        <v>1.051915632624488</v>
       </c>
       <c r="K12">
-        <v>0.9909812862391907</v>
+        <v>1.049102516152185</v>
       </c>
       <c r="L12">
-        <v>0.9748698178368655</v>
+        <v>1.055642428144239</v>
       </c>
       <c r="M12">
-        <v>0.9700724197741557</v>
+        <v>1.064799207476943</v>
       </c>
       <c r="N12">
-        <v>0.9780492027912775</v>
+        <v>1.053409473479224</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9450237775248449</v>
+        <v>1.045437294511967</v>
       </c>
       <c r="D13">
-        <v>0.9759243019543231</v>
+        <v>1.0456032822859</v>
       </c>
       <c r="E13">
-        <v>0.9595746497157973</v>
+        <v>1.052184319795392</v>
       </c>
       <c r="F13">
-        <v>0.9547527122112273</v>
+        <v>1.061387878913749</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026363744682932</v>
+        <v>1.038069032528171</v>
       </c>
       <c r="J13">
-        <v>0.977249977266329</v>
+        <v>1.051997514723741</v>
       </c>
       <c r="K13">
-        <v>0.9914821208814584</v>
+        <v>1.049170108637024</v>
       </c>
       <c r="L13">
-        <v>0.9754727982794924</v>
+        <v>1.055727156661471</v>
       </c>
       <c r="M13">
-        <v>0.9707541864248174</v>
+        <v>1.064897717024573</v>
       </c>
       <c r="N13">
-        <v>0.9786377843261862</v>
+        <v>1.05349147186045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9473828657310064</v>
+        <v>1.045766792855075</v>
       </c>
       <c r="D14">
-        <v>0.9777379637285407</v>
+        <v>1.045856807097862</v>
       </c>
       <c r="E14">
-        <v>0.961732940430478</v>
+        <v>1.052493943389786</v>
       </c>
       <c r="F14">
-        <v>0.9571746042799081</v>
+        <v>1.061742491966795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027203935858299</v>
+        <v>1.038160002155875</v>
       </c>
       <c r="J14">
-        <v>0.9791601710658125</v>
+        <v>1.052265650606855</v>
       </c>
       <c r="K14">
-        <v>0.9931098243846288</v>
+        <v>1.049391431031856</v>
       </c>
       <c r="L14">
-        <v>0.9774324648574045</v>
+        <v>1.056004613285039</v>
       </c>
       <c r="M14">
-        <v>0.9729701044810926</v>
+        <v>1.065220333568899</v>
       </c>
       <c r="N14">
-        <v>0.9805506908199675</v>
+        <v>1.053759988527273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9488219994047412</v>
+        <v>1.045969690494384</v>
       </c>
       <c r="D15">
-        <v>0.9788447260667972</v>
+        <v>1.04601290973628</v>
       </c>
       <c r="E15">
-        <v>0.9630497954930153</v>
+        <v>1.052684598343098</v>
       </c>
       <c r="F15">
-        <v>0.9586523092839605</v>
+        <v>1.061960869155429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027716139279712</v>
+        <v>1.038215964958448</v>
       </c>
       <c r="J15">
-        <v>0.9803254131671072</v>
+        <v>1.052430738277877</v>
       </c>
       <c r="K15">
-        <v>0.9941027233367881</v>
+        <v>1.049527681032961</v>
       </c>
       <c r="L15">
-        <v>0.9786278588062413</v>
+        <v>1.056175439388219</v>
       </c>
       <c r="M15">
-        <v>0.9743219650270303</v>
+        <v>1.065418988341461</v>
       </c>
       <c r="N15">
-        <v>0.981717587698701</v>
+        <v>1.053925310641725</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9569910231757798</v>
+        <v>1.047148872855715</v>
       </c>
       <c r="D16">
-        <v>0.9851320471253288</v>
+        <v>1.046919945473602</v>
       </c>
       <c r="E16">
-        <v>0.9705277326978426</v>
+        <v>1.053792564607353</v>
       </c>
       <c r="F16">
-        <v>0.9670440622726748</v>
+        <v>1.06323023525426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030618214320417</v>
+        <v>1.038540376722552</v>
       </c>
       <c r="J16">
-        <v>0.9869388045341518</v>
+        <v>1.053389808298988</v>
       </c>
       <c r="K16">
-        <v>0.9997375536846621</v>
+        <v>1.050318986942183</v>
       </c>
       <c r="L16">
-        <v>0.985412006501914</v>
+        <v>1.057167843642872</v>
       </c>
       <c r="M16">
-        <v>0.9819964652654043</v>
+        <v>1.066573433158028</v>
       </c>
       <c r="N16">
-        <v>0.9883403708400534</v>
+        <v>1.054885742652273</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9619447412010959</v>
+        <v>1.047887005118885</v>
       </c>
       <c r="D17">
-        <v>0.9889485815119254</v>
+        <v>1.047487555674341</v>
       </c>
       <c r="E17">
-        <v>0.9750647812366749</v>
+        <v>1.054486060301619</v>
       </c>
       <c r="F17">
-        <v>0.9721360566812095</v>
+        <v>1.06402501467124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032373158017095</v>
+        <v>1.038742719279361</v>
       </c>
       <c r="J17">
-        <v>0.9909481778923368</v>
+        <v>1.053989829339624</v>
       </c>
       <c r="K17">
-        <v>1.003153197136834</v>
+        <v>1.050813844471042</v>
       </c>
       <c r="L17">
-        <v>0.9895246122922933</v>
+        <v>1.057788717399388</v>
       </c>
       <c r="M17">
-        <v>0.9866509409326421</v>
+        <v>1.067296010988358</v>
       </c>
       <c r="N17">
-        <v>0.9923554379682886</v>
+        <v>1.055486615791609</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9647771154485532</v>
+        <v>1.048316999227654</v>
       </c>
       <c r="D18">
-        <v>0.9911319876128292</v>
+        <v>1.047818152706113</v>
       </c>
       <c r="E18">
-        <v>0.9776597026604621</v>
+        <v>1.054890030922801</v>
       </c>
       <c r="F18">
-        <v>0.9750486140444845</v>
+        <v>1.064488078534763</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03337475186543</v>
+        <v>1.038860329578164</v>
       </c>
       <c r="J18">
-        <v>0.9932401748496782</v>
+        <v>1.054339249479351</v>
       </c>
       <c r="K18">
-        <v>1.005105570598418</v>
+        <v>1.051101948681325</v>
       </c>
       <c r="L18">
-        <v>0.9918755328257</v>
+        <v>1.058150280474943</v>
       </c>
       <c r="M18">
-        <v>0.9893124038263614</v>
+        <v>1.067716919032015</v>
       </c>
       <c r="N18">
-        <v>0.9946506898242051</v>
+        <v>1.055836532148014</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9657335884882342</v>
+        <v>1.048463524271725</v>
       </c>
       <c r="D19">
-        <v>0.9918695042548743</v>
+        <v>1.04793079681849</v>
       </c>
       <c r="E19">
-        <v>0.9785361157443732</v>
+        <v>1.055027684664918</v>
       </c>
       <c r="F19">
-        <v>0.9760323516314776</v>
+        <v>1.064645884386819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033712667158642</v>
+        <v>1.038900361894941</v>
       </c>
       <c r="J19">
-        <v>0.9940140867976334</v>
+        <v>1.054458298031238</v>
       </c>
       <c r="K19">
-        <v>1.005764766246182</v>
+        <v>1.051200094069514</v>
       </c>
       <c r="L19">
-        <v>0.9926693267232347</v>
+        <v>1.058273466085122</v>
       </c>
       <c r="M19">
-        <v>0.9902111889890374</v>
+        <v>1.067860343684066</v>
       </c>
       <c r="N19">
-        <v>0.9954257008158954</v>
+        <v>1.055955749762499</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9614192475544631</v>
+        <v>1.047807867167125</v>
       </c>
       <c r="D20">
-        <v>0.9885435887444306</v>
+        <v>1.047426706293342</v>
       </c>
       <c r="E20">
-        <v>0.9745834046140378</v>
+        <v>1.054411710151308</v>
       </c>
       <c r="F20">
-        <v>0.9715957770115943</v>
+        <v>1.063939796088486</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032187181193793</v>
+        <v>1.038721052583045</v>
       </c>
       <c r="J20">
-        <v>0.9905229044393871</v>
+        <v>1.053925511041361</v>
       </c>
       <c r="K20">
-        <v>1.002790921723018</v>
+        <v>1.050760806694881</v>
       </c>
       <c r="L20">
-        <v>0.9890883986974369</v>
+        <v>1.057722163890803</v>
       </c>
       <c r="M20">
-        <v>0.9861571708297714</v>
+        <v>1.067218543268643</v>
       </c>
       <c r="N20">
-        <v>0.9919295605782559</v>
+        <v>1.055422206153986</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9466911991839633</v>
+        <v>1.045669788260189</v>
       </c>
       <c r="D21">
-        <v>0.9772061356138453</v>
+        <v>1.04578217171823</v>
       </c>
       <c r="E21">
-        <v>0.9611001004723394</v>
+        <v>1.052402790826381</v>
       </c>
       <c r="F21">
-        <v>0.9564644697442614</v>
+        <v>1.06163809056336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026957670038485</v>
+        <v>1.038133231920854</v>
       </c>
       <c r="J21">
-        <v>0.978600126644472</v>
+        <v>1.052186716246404</v>
       </c>
       <c r="K21">
-        <v>0.9926326065264984</v>
+        <v>1.049326280889729</v>
       </c>
       <c r="L21">
-        <v>0.976857921426466</v>
+        <v>1.05592293511448</v>
       </c>
       <c r="M21">
-        <v>0.9723204001636647</v>
+        <v>1.065125356067829</v>
       </c>
       <c r="N21">
-        <v>0.9799898510713108</v>
+        <v>1.053680942070977</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9368146616687854</v>
+        <v>1.044320398231056</v>
       </c>
       <c r="D22">
-        <v>0.9696190874707905</v>
+        <v>1.044743732921152</v>
       </c>
       <c r="E22">
-        <v>0.9520677813701256</v>
+        <v>1.0511347296775</v>
       </c>
       <c r="F22">
-        <v>0.9463290836548206</v>
+        <v>1.060186065668835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023435018263733</v>
+        <v>1.037759871713805</v>
       </c>
       <c r="J22">
-        <v>0.9706023829695646</v>
+        <v>1.051088257894297</v>
       </c>
       <c r="K22">
-        <v>0.9858174157030801</v>
+        <v>1.048419372770887</v>
       </c>
       <c r="L22">
-        <v>0.9686525859462831</v>
+        <v>1.054786289203849</v>
       </c>
       <c r="M22">
-        <v>0.9630444091463478</v>
+        <v>1.063804070547705</v>
       </c>
       <c r="N22">
-        <v>0.9719807496830307</v>
+        <v>1.052580923782014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9421145503933193</v>
+        <v>1.045036226986692</v>
       </c>
       <c r="D23">
-        <v>0.9736887254779056</v>
+        <v>1.045294657421848</v>
       </c>
       <c r="E23">
-        <v>0.9569136596645272</v>
+        <v>1.05180743245442</v>
       </c>
       <c r="F23">
-        <v>0.9517667530485063</v>
+        <v>1.06095628061607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025326696709755</v>
+        <v>1.037958157502014</v>
       </c>
       <c r="J23">
-        <v>0.9748942136836797</v>
+        <v>1.051671072353573</v>
       </c>
       <c r="K23">
-        <v>0.9894746964886409</v>
+        <v>1.048900618381046</v>
       </c>
       <c r="L23">
-        <v>0.9730559439149414</v>
+        <v>1.055389366099847</v>
       </c>
       <c r="M23">
-        <v>0.9680217107992806</v>
+        <v>1.064505011996365</v>
       </c>
       <c r="N23">
-        <v>0.9762786752890398</v>
+        <v>1.053164565904673</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9616568707555472</v>
+        <v>1.047843627887323</v>
       </c>
       <c r="D24">
-        <v>0.9887267187864464</v>
+        <v>1.047454202993353</v>
       </c>
       <c r="E24">
-        <v>0.9748010760913083</v>
+        <v>1.054445307432262</v>
       </c>
       <c r="F24">
-        <v>0.9718400828251328</v>
+        <v>1.063978304296186</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032271283840613</v>
+        <v>1.038730844105478</v>
       </c>
       <c r="J24">
-        <v>0.9907152103900537</v>
+        <v>1.053954575447722</v>
       </c>
       <c r="K24">
-        <v>1.002954741031755</v>
+        <v>1.050784773844325</v>
       </c>
       <c r="L24">
-        <v>0.9892856519886579</v>
+        <v>1.057752238354538</v>
       </c>
       <c r="M24">
-        <v>0.9863804483797348</v>
+        <v>1.06725354932435</v>
       </c>
       <c r="N24">
-        <v>0.9921221396254307</v>
+        <v>1.055451311835137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982123377690452</v>
+        <v>1.051080131415635</v>
       </c>
       <c r="D25">
-        <v>1.004521262506789</v>
+        <v>1.049941453308942</v>
       </c>
       <c r="E25">
-        <v>0.9935634180187094</v>
+        <v>1.057485561581816</v>
       </c>
       <c r="F25">
-        <v>0.992904638753102</v>
+        <v>1.067464987057414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039475170269879</v>
+        <v>1.039611342568615</v>
       </c>
       <c r="J25">
-        <v>1.007267710934072</v>
+        <v>1.056582480805428</v>
       </c>
       <c r="K25">
-        <v>1.017049794818821</v>
+        <v>1.052950193307495</v>
       </c>
       <c r="L25">
-        <v>1.006262482220857</v>
+        <v>1.060471463370342</v>
       </c>
       <c r="M25">
-        <v>1.005614108804163</v>
+        <v>1.070421218135995</v>
       </c>
       <c r="N25">
-        <v>1.008698146618819</v>
+        <v>1.058082949119876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053645271017139</v>
+        <v>0.9970575110618194</v>
       </c>
       <c r="D2">
-        <v>1.051910786139508</v>
+        <v>1.016068315791339</v>
       </c>
       <c r="E2">
-        <v>1.059894502419626</v>
+        <v>1.00727018962722</v>
       </c>
       <c r="F2">
-        <v>1.070230638277563</v>
+        <v>1.00830547022253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040300881744945</v>
+        <v>1.044670860118518</v>
       </c>
       <c r="J2">
-        <v>1.058661527357204</v>
+        <v>1.019326589076379</v>
       </c>
       <c r="K2">
-        <v>1.054660978389271</v>
+        <v>1.027308241832307</v>
       </c>
       <c r="L2">
-        <v>1.062622762400373</v>
+        <v>1.018629159906015</v>
       </c>
       <c r="M2">
-        <v>1.072931029374531</v>
+        <v>1.019650296733658</v>
       </c>
       <c r="N2">
-        <v>1.060164948156226</v>
+        <v>1.020774149751261</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055498791462641</v>
+        <v>1.007240444086607</v>
       </c>
       <c r="D3">
-        <v>1.053332612497063</v>
+        <v>1.023949079768788</v>
       </c>
       <c r="E3">
-        <v>1.061634772963499</v>
+        <v>1.016623006473131</v>
       </c>
       <c r="F3">
-        <v>1.072230342341859</v>
+        <v>1.018823003639991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040794297841773</v>
+        <v>1.048176123909987</v>
       </c>
       <c r="J3">
-        <v>1.060161631065802</v>
+        <v>1.027535654681649</v>
       </c>
       <c r="K3">
-        <v>1.05589398107142</v>
+        <v>1.03428443035977</v>
       </c>
       <c r="L3">
-        <v>1.064175013051718</v>
+        <v>1.027047520735044</v>
       </c>
       <c r="M3">
-        <v>1.074744129012214</v>
+        <v>1.029220574854905</v>
       </c>
       <c r="N3">
-        <v>1.061667182184154</v>
+        <v>1.028994873171284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056694124493594</v>
+        <v>1.013562109414364</v>
       </c>
       <c r="D4">
-        <v>1.054248992432403</v>
+        <v>1.028843480511897</v>
       </c>
       <c r="E4">
-        <v>1.062756893120052</v>
+        <v>1.022431788226862</v>
       </c>
       <c r="F4">
-        <v>1.073520551541594</v>
+        <v>1.025359679261484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0411102614864</v>
+        <v>1.05033426100016</v>
       </c>
       <c r="J4">
-        <v>1.061128037080686</v>
+        <v>1.032625144231255</v>
       </c>
       <c r="K4">
-        <v>1.056687666719927</v>
+        <v>1.038605820475137</v>
       </c>
       <c r="L4">
-        <v>1.065175023784708</v>
+        <v>1.032266814570189</v>
       </c>
       <c r="M4">
-        <v>1.075913192450407</v>
+        <v>1.035161374427494</v>
       </c>
       <c r="N4">
-        <v>1.062634960606428</v>
+        <v>1.034091590379822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057195701103482</v>
+        <v>1.016160641035775</v>
       </c>
       <c r="D5">
-        <v>1.054633382637259</v>
+        <v>1.0308556097779</v>
       </c>
       <c r="E5">
-        <v>1.063227705943902</v>
+        <v>1.024820003205127</v>
       </c>
       <c r="F5">
-        <v>1.074062083982648</v>
+        <v>1.028048305455949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041242306730834</v>
+        <v>1.051216963890709</v>
       </c>
       <c r="J5">
-        <v>1.061533311047924</v>
+        <v>1.034715480137429</v>
       </c>
       <c r="K5">
-        <v>1.057020352657722</v>
+        <v>1.040379735552122</v>
       </c>
       <c r="L5">
-        <v>1.065594393312044</v>
+        <v>1.034410495394916</v>
       </c>
       <c r="M5">
-        <v>1.076403697882963</v>
+        <v>1.037603180745454</v>
       </c>
       <c r="N5">
-        <v>1.063040810109185</v>
+        <v>1.036184894802749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057279863415789</v>
+        <v>1.016593612256384</v>
       </c>
       <c r="D6">
-        <v>1.05469787367735</v>
+        <v>1.03119088491569</v>
       </c>
       <c r="E6">
-        <v>1.063306703720013</v>
+        <v>1.025217958573853</v>
       </c>
       <c r="F6">
-        <v>1.074152959197178</v>
+        <v>1.028496388333067</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041264431810147</v>
+        <v>1.051363779496171</v>
       </c>
       <c r="J6">
-        <v>1.061601299998955</v>
+        <v>1.035063672329009</v>
       </c>
       <c r="K6">
-        <v>1.057076155052369</v>
+        <v>1.040675163385941</v>
       </c>
       <c r="L6">
-        <v>1.065664747134078</v>
+        <v>1.034767575875032</v>
       </c>
       <c r="M6">
-        <v>1.076485999686909</v>
+        <v>1.038010026990671</v>
       </c>
       <c r="N6">
-        <v>1.063108895612324</v>
+        <v>1.036533581467178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056700830255807</v>
+        <v>1.01359705728127</v>
       </c>
       <c r="D7">
-        <v>1.054254132016255</v>
+        <v>1.028870540942262</v>
       </c>
       <c r="E7">
-        <v>1.062763187758131</v>
+        <v>1.022463905630167</v>
       </c>
       <c r="F7">
-        <v>1.073527790918917</v>
+        <v>1.025395832059703</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04111202896056</v>
+        <v>1.050346150128476</v>
       </c>
       <c r="J7">
-        <v>1.061133456289677</v>
+        <v>1.032653264207582</v>
       </c>
       <c r="K7">
-        <v>1.056692115915603</v>
+        <v>1.038629687678444</v>
       </c>
       <c r="L7">
-        <v>1.065180631462944</v>
+        <v>1.032295652006807</v>
       </c>
       <c r="M7">
-        <v>1.075919750386834</v>
+        <v>1.035194215210677</v>
       </c>
       <c r="N7">
-        <v>1.062640387511318</v>
+        <v>1.034119750289742</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054272521525432</v>
+        <v>1.000557400663612</v>
       </c>
       <c r="D8">
-        <v>1.05239206095627</v>
+        <v>1.018776408747372</v>
       </c>
       <c r="E8">
-        <v>1.060483464898053</v>
+        <v>1.010484187195798</v>
       </c>
       <c r="F8">
-        <v>1.070907234006684</v>
+        <v>1.011918789734465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040468323195654</v>
+        <v>1.045879385799551</v>
       </c>
       <c r="J8">
-        <v>1.059169387106455</v>
+        <v>1.022149446259746</v>
       </c>
       <c r="K8">
-        <v>1.055078545021187</v>
+        <v>1.029707909136163</v>
       </c>
       <c r="L8">
-        <v>1.063148274678977</v>
+        <v>1.021523991839688</v>
       </c>
       <c r="M8">
-        <v>1.073544643215066</v>
+        <v>1.022939697935606</v>
       </c>
       <c r="N8">
-        <v>1.060673529124573</v>
+        <v>1.023601015715615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04996181931677</v>
+        <v>0.9752726906741802</v>
       </c>
       <c r="D9">
-        <v>1.049082333873399</v>
+        <v>0.9992299876972688</v>
       </c>
       <c r="E9">
-        <v>1.056435161647647</v>
+        <v>0.9872801319225422</v>
       </c>
       <c r="F9">
-        <v>1.066259885126166</v>
+        <v>0.9858486802166201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039308392137335</v>
+        <v>1.037073328504891</v>
       </c>
       <c r="J9">
-        <v>1.055675037774338</v>
+        <v>1.001729902233319</v>
       </c>
       <c r="K9">
-        <v>1.052202817781133</v>
+        <v>1.01233557017978</v>
       </c>
       <c r="L9">
-        <v>1.059532487297663</v>
+        <v>1.000583007301442</v>
       </c>
       <c r="M9">
-        <v>1.069326811291963</v>
+        <v>0.9991756026348736</v>
       </c>
       <c r="N9">
-        <v>1.057174217415596</v>
+        <v>1.003152473594516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047065382345358</v>
+        <v>0.9564231807793419</v>
       </c>
       <c r="D10">
-        <v>1.046855734634067</v>
+        <v>0.9846947414938887</v>
       </c>
       <c r="E10">
-        <v>1.053714120154176</v>
+        <v>0.9700077669009276</v>
       </c>
       <c r="F10">
-        <v>1.063140346875264</v>
+        <v>0.9664605263196143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038517454039062</v>
+        <v>1.03041679923907</v>
       </c>
       <c r="J10">
-        <v>1.053321923618442</v>
+        <v>0.9864791574061851</v>
       </c>
       <c r="K10">
-        <v>1.05026299010934</v>
+        <v>0.9993459472820986</v>
       </c>
       <c r="L10">
-        <v>1.057097599654044</v>
+        <v>0.9849405110621935</v>
       </c>
       <c r="M10">
-        <v>1.066491698632289</v>
+        <v>0.9814629535834479</v>
       </c>
       <c r="N10">
-        <v>1.054817761567693</v>
+        <v>0.9878800709604427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045805529561924</v>
+        <v>0.9476584102177139</v>
       </c>
       <c r="D11">
-        <v>1.045886610542765</v>
+        <v>0.9779498496592538</v>
       </c>
       <c r="E11">
-        <v>1.052530343005545</v>
+        <v>0.9619850602145968</v>
       </c>
       <c r="F11">
-        <v>1.061784183135766</v>
+        <v>0.9574575186173695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038170689634268</v>
+        <v>1.027302025766937</v>
       </c>
       <c r="J11">
-        <v>1.052297170166802</v>
+        <v>0.9793832778258571</v>
       </c>
       <c r="K11">
-        <v>1.04941744562471</v>
+        <v>0.9932999342326857</v>
       </c>
       <c r="L11">
-        <v>1.056037228474749</v>
+        <v>0.9776613463140376</v>
       </c>
       <c r="M11">
-        <v>1.065258260545546</v>
+        <v>0.97322893536605</v>
       </c>
       <c r="N11">
-        <v>1.053791552848612</v>
+        <v>0.9807741144172017</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045336685762857</v>
+        <v>0.9442979322779335</v>
       </c>
       <c r="D12">
-        <v>1.045525866369943</v>
+        <v>0.9753664232751337</v>
       </c>
       <c r="E12">
-        <v>1.052089777884998</v>
+        <v>0.9589106751307173</v>
       </c>
       <c r="F12">
-        <v>1.061279607434165</v>
+        <v>0.9540076486397913</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038041234302408</v>
+        <v>1.026105097214313</v>
       </c>
       <c r="J12">
-        <v>1.051915632624488</v>
+        <v>0.9766622303993857</v>
       </c>
       <c r="K12">
-        <v>1.049102516152185</v>
+        <v>0.9909812862391897</v>
       </c>
       <c r="L12">
-        <v>1.055642428144239</v>
+        <v>0.974869817836864</v>
       </c>
       <c r="M12">
-        <v>1.064799207476943</v>
+        <v>0.9700724197741539</v>
       </c>
       <c r="N12">
-        <v>1.053409473479224</v>
+        <v>0.9780492027912764</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045437294511967</v>
+        <v>0.9450237775248428</v>
       </c>
       <c r="D13">
-        <v>1.0456032822859</v>
+        <v>0.9759243019543209</v>
       </c>
       <c r="E13">
-        <v>1.052184319795392</v>
+        <v>0.9595746497157952</v>
       </c>
       <c r="F13">
-        <v>1.061387878913749</v>
+        <v>0.9547527122112253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038069032528171</v>
+        <v>1.026363744682931</v>
       </c>
       <c r="J13">
-        <v>1.051997514723741</v>
+        <v>0.977249977266327</v>
       </c>
       <c r="K13">
-        <v>1.049170108637024</v>
+        <v>0.9914821208814562</v>
       </c>
       <c r="L13">
-        <v>1.055727156661471</v>
+        <v>0.9754727982794904</v>
       </c>
       <c r="M13">
-        <v>1.064897717024573</v>
+        <v>0.9707541864248155</v>
       </c>
       <c r="N13">
-        <v>1.05349147186045</v>
+        <v>0.9786377843261842</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045766792855075</v>
+        <v>0.9473828657310073</v>
       </c>
       <c r="D14">
-        <v>1.045856807097862</v>
+        <v>0.9777379637285414</v>
       </c>
       <c r="E14">
-        <v>1.052493943389786</v>
+        <v>0.9617329404304789</v>
       </c>
       <c r="F14">
-        <v>1.061742491966795</v>
+        <v>0.9571746042799092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038160002155875</v>
+        <v>1.027203935858299</v>
       </c>
       <c r="J14">
-        <v>1.052265650606855</v>
+        <v>0.9791601710658133</v>
       </c>
       <c r="K14">
-        <v>1.049391431031856</v>
+        <v>0.9931098243846292</v>
       </c>
       <c r="L14">
-        <v>1.056004613285039</v>
+        <v>0.9774324648574054</v>
       </c>
       <c r="M14">
-        <v>1.065220333568899</v>
+        <v>0.9729701044810934</v>
       </c>
       <c r="N14">
-        <v>1.053759988527273</v>
+        <v>0.9805506908199685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045969690494384</v>
+        <v>0.948821999404739</v>
       </c>
       <c r="D15">
-        <v>1.04601290973628</v>
+        <v>0.9788447260667952</v>
       </c>
       <c r="E15">
-        <v>1.052684598343098</v>
+        <v>0.9630497954930131</v>
       </c>
       <c r="F15">
-        <v>1.061960869155429</v>
+        <v>0.9586523092839582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038215964958448</v>
+        <v>1.027716139279711</v>
       </c>
       <c r="J15">
-        <v>1.052430738277877</v>
+        <v>0.9803254131671051</v>
       </c>
       <c r="K15">
-        <v>1.049527681032961</v>
+        <v>0.9941027233367861</v>
       </c>
       <c r="L15">
-        <v>1.056175439388219</v>
+        <v>0.9786278588062391</v>
       </c>
       <c r="M15">
-        <v>1.065418988341461</v>
+        <v>0.9743219650270278</v>
       </c>
       <c r="N15">
-        <v>1.053925310641725</v>
+        <v>0.9817175876986989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047148872855715</v>
+        <v>0.9569910231757787</v>
       </c>
       <c r="D16">
-        <v>1.046919945473602</v>
+        <v>0.9851320471253279</v>
       </c>
       <c r="E16">
-        <v>1.053792564607353</v>
+        <v>0.9705277326978413</v>
       </c>
       <c r="F16">
-        <v>1.06323023525426</v>
+        <v>0.967044062272673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038540376722552</v>
+        <v>1.030618214320416</v>
       </c>
       <c r="J16">
-        <v>1.053389808298988</v>
+        <v>0.9869388045341507</v>
       </c>
       <c r="K16">
-        <v>1.050318986942183</v>
+        <v>0.9997375536846609</v>
       </c>
       <c r="L16">
-        <v>1.057167843642872</v>
+        <v>0.9854120065019129</v>
       </c>
       <c r="M16">
-        <v>1.066573433158028</v>
+        <v>0.9819964652654025</v>
       </c>
       <c r="N16">
-        <v>1.054885742652273</v>
+        <v>0.9883403708400527</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047887005118885</v>
+        <v>0.9619447412010939</v>
       </c>
       <c r="D17">
-        <v>1.047487555674341</v>
+        <v>0.988948581511924</v>
       </c>
       <c r="E17">
-        <v>1.054486060301619</v>
+        <v>0.9750647812366728</v>
       </c>
       <c r="F17">
-        <v>1.06402501467124</v>
+        <v>0.9721360566812072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038742719279361</v>
+        <v>1.032373158017095</v>
       </c>
       <c r="J17">
-        <v>1.053989829339624</v>
+        <v>0.990948177892335</v>
       </c>
       <c r="K17">
-        <v>1.050813844471042</v>
+        <v>1.003153197136833</v>
       </c>
       <c r="L17">
-        <v>1.057788717399388</v>
+        <v>0.9895246122922911</v>
       </c>
       <c r="M17">
-        <v>1.067296010988358</v>
+        <v>0.9866509409326396</v>
       </c>
       <c r="N17">
-        <v>1.055486615791609</v>
+        <v>0.9923554379682868</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048316999227654</v>
+        <v>0.9647771154485529</v>
       </c>
       <c r="D18">
-        <v>1.047818152706113</v>
+        <v>0.9911319876128287</v>
       </c>
       <c r="E18">
-        <v>1.054890030922801</v>
+        <v>0.9776597026604615</v>
       </c>
       <c r="F18">
-        <v>1.064488078534763</v>
+        <v>0.975048614044484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038860329578164</v>
+        <v>1.03337475186543</v>
       </c>
       <c r="J18">
-        <v>1.054339249479351</v>
+        <v>0.9932401748496779</v>
       </c>
       <c r="K18">
-        <v>1.051101948681325</v>
+        <v>1.005105570598417</v>
       </c>
       <c r="L18">
-        <v>1.058150280474943</v>
+        <v>0.9918755328256994</v>
       </c>
       <c r="M18">
-        <v>1.067716919032015</v>
+        <v>0.9893124038263609</v>
       </c>
       <c r="N18">
-        <v>1.055836532148014</v>
+        <v>0.9946506898242048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048463524271725</v>
+        <v>0.9657335884882331</v>
       </c>
       <c r="D19">
-        <v>1.04793079681849</v>
+        <v>0.9918695042548733</v>
       </c>
       <c r="E19">
-        <v>1.055027684664918</v>
+        <v>0.9785361157443716</v>
       </c>
       <c r="F19">
-        <v>1.064645884386819</v>
+        <v>0.9760323516314761</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038900361894941</v>
+        <v>1.033712667158641</v>
       </c>
       <c r="J19">
-        <v>1.054458298031238</v>
+        <v>0.994014086797632</v>
       </c>
       <c r="K19">
-        <v>1.051200094069514</v>
+        <v>1.005764766246181</v>
       </c>
       <c r="L19">
-        <v>1.058273466085122</v>
+        <v>0.9926693267232333</v>
       </c>
       <c r="M19">
-        <v>1.067860343684066</v>
+        <v>0.9902111889890357</v>
       </c>
       <c r="N19">
-        <v>1.055955749762499</v>
+        <v>0.9954257008158943</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047807867167125</v>
+        <v>0.9614192475544654</v>
       </c>
       <c r="D20">
-        <v>1.047426706293342</v>
+        <v>0.9885435887444328</v>
       </c>
       <c r="E20">
-        <v>1.054411710151308</v>
+        <v>0.9745834046140397</v>
       </c>
       <c r="F20">
-        <v>1.063939796088486</v>
+        <v>0.9715957770115964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038721052583045</v>
+        <v>1.032187181193794</v>
       </c>
       <c r="J20">
-        <v>1.053925511041361</v>
+        <v>0.9905229044393894</v>
       </c>
       <c r="K20">
-        <v>1.050760806694881</v>
+        <v>1.00279092172302</v>
       </c>
       <c r="L20">
-        <v>1.057722163890803</v>
+        <v>0.9890883986974389</v>
       </c>
       <c r="M20">
-        <v>1.067218543268643</v>
+        <v>0.9861571708297731</v>
       </c>
       <c r="N20">
-        <v>1.055422206153986</v>
+        <v>0.9919295605782584</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045669788260189</v>
+        <v>0.9466911991839584</v>
       </c>
       <c r="D21">
-        <v>1.04578217171823</v>
+        <v>0.9772061356138413</v>
       </c>
       <c r="E21">
-        <v>1.052402790826381</v>
+        <v>0.9611001004723349</v>
       </c>
       <c r="F21">
-        <v>1.06163809056336</v>
+        <v>0.9564644697442564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038133231920854</v>
+        <v>1.026957670038483</v>
       </c>
       <c r="J21">
-        <v>1.052186716246404</v>
+        <v>0.9786001266444676</v>
       </c>
       <c r="K21">
-        <v>1.049326280889729</v>
+        <v>0.9926326065264942</v>
       </c>
       <c r="L21">
-        <v>1.05592293511448</v>
+        <v>0.9768579214264613</v>
       </c>
       <c r="M21">
-        <v>1.065125356067829</v>
+        <v>0.9723204001636598</v>
       </c>
       <c r="N21">
-        <v>1.053680942070977</v>
+        <v>0.9799898510713062</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044320398231056</v>
+        <v>0.9368146616687856</v>
       </c>
       <c r="D22">
-        <v>1.044743732921152</v>
+        <v>0.969619087470791</v>
       </c>
       <c r="E22">
-        <v>1.0511347296775</v>
+        <v>0.9520677813701254</v>
       </c>
       <c r="F22">
-        <v>1.060186065668835</v>
+        <v>0.9463290836548205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037759871713805</v>
+        <v>1.023435018263733</v>
       </c>
       <c r="J22">
-        <v>1.051088257894297</v>
+        <v>0.9706023829695648</v>
       </c>
       <c r="K22">
-        <v>1.048419372770887</v>
+        <v>0.9858174157030803</v>
       </c>
       <c r="L22">
-        <v>1.054786289203849</v>
+        <v>0.968652585946283</v>
       </c>
       <c r="M22">
-        <v>1.063804070547705</v>
+        <v>0.9630444091463475</v>
       </c>
       <c r="N22">
-        <v>1.052580923782014</v>
+        <v>0.9719807496830309</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045036226986692</v>
+        <v>0.9421145503933194</v>
       </c>
       <c r="D23">
-        <v>1.045294657421848</v>
+        <v>0.9736887254779056</v>
       </c>
       <c r="E23">
-        <v>1.05180743245442</v>
+        <v>0.9569136596645272</v>
       </c>
       <c r="F23">
-        <v>1.06095628061607</v>
+        <v>0.9517667530485061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037958157502014</v>
+        <v>1.025326696709755</v>
       </c>
       <c r="J23">
-        <v>1.051671072353573</v>
+        <v>0.9748942136836796</v>
       </c>
       <c r="K23">
-        <v>1.048900618381046</v>
+        <v>0.9894746964886409</v>
       </c>
       <c r="L23">
-        <v>1.055389366099847</v>
+        <v>0.9730559439149414</v>
       </c>
       <c r="M23">
-        <v>1.064505011996365</v>
+        <v>0.9680217107992802</v>
       </c>
       <c r="N23">
-        <v>1.053164565904673</v>
+        <v>0.9762786752890396</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047843627887323</v>
+        <v>0.9616568707555481</v>
       </c>
       <c r="D24">
-        <v>1.047454202993353</v>
+        <v>0.9887267187864471</v>
       </c>
       <c r="E24">
-        <v>1.054445307432262</v>
+        <v>0.9748010760913087</v>
       </c>
       <c r="F24">
-        <v>1.063978304296186</v>
+        <v>0.9718400828251332</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038730844105478</v>
+        <v>1.032271283840613</v>
       </c>
       <c r="J24">
-        <v>1.053954575447722</v>
+        <v>0.9907152103900545</v>
       </c>
       <c r="K24">
-        <v>1.050784773844325</v>
+        <v>1.002954741031755</v>
       </c>
       <c r="L24">
-        <v>1.057752238354538</v>
+        <v>0.9892856519886586</v>
       </c>
       <c r="M24">
-        <v>1.06725354932435</v>
+        <v>0.9863804483797353</v>
       </c>
       <c r="N24">
-        <v>1.055451311835137</v>
+        <v>0.9921221396254315</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051080131415635</v>
+        <v>0.9821233776904508</v>
       </c>
       <c r="D25">
-        <v>1.049941453308942</v>
+        <v>1.004521262506788</v>
       </c>
       <c r="E25">
-        <v>1.057485561581816</v>
+        <v>0.9935634180187081</v>
       </c>
       <c r="F25">
-        <v>1.067464987057414</v>
+        <v>0.9929046387531008</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039611342568615</v>
+        <v>1.039475170269878</v>
       </c>
       <c r="J25">
-        <v>1.056582480805428</v>
+        <v>1.00726771093407</v>
       </c>
       <c r="K25">
-        <v>1.052950193307495</v>
+        <v>1.01704979481882</v>
       </c>
       <c r="L25">
-        <v>1.060471463370342</v>
+        <v>1.006262482220856</v>
       </c>
       <c r="M25">
-        <v>1.070421218135995</v>
+        <v>1.005614108804162</v>
       </c>
       <c r="N25">
-        <v>1.058082949119876</v>
+        <v>1.008698146618818</v>
       </c>
     </row>
   </sheetData>
